--- a/lecNote/01_python/0424_ch10_dtype을int32에서int64로변경시.xlsx
+++ b/lecNote/01_python/0424_ch10_dtype을int32에서int64로변경시.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai_x\lecNote\01_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEB9CFF-EBD8-432F-8475-EE775D966F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA63F0F-7C1F-480A-9FC2-411CF817AAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="변경전 a" sheetId="1" r:id="rId1"/>
     <sheet name="변경후 a" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +113,34 @@
   </si>
   <si>
     <t>=(16^8*11)+(16^0*10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>np.int8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>np.int16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>np.int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>np.int64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-128 ~ 127(2의 7승-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2의 15승~ 2승15승-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +164,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -144,7 +181,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -178,13 +215,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -198,6 +261,18 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -480,42 +555,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I13"/>
+  <dimension ref="B2:R13"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="1.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
         <v>0</v>
       </c>
@@ -540,34 +592,33 @@
       <c r="I3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>0</v>
       </c>
@@ -592,34 +643,33 @@
       <c r="I5" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>0</v>
       </c>
@@ -644,34 +694,33 @@
       <c r="I7" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <v>0</v>
       </c>
@@ -696,34 +745,33 @@
       <c r="I9" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <v>0</v>
       </c>
@@ -748,34 +796,33 @@
       <c r="I11" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <v>0</v>
       </c>
@@ -799,6 +846,30 @@
       </c>
       <c r="I13" s="3" t="s">
         <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -812,7 +883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
@@ -1225,4 +1296,114 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6972A939-CD72-479C-A166-0FB49C3327B9}">
+  <dimension ref="B1:M8"/>
+  <sheetViews>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="2.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1">
+        <v>6</v>
+      </c>
+      <c r="D1">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7">
+        <v>7</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lecNote/01_python/0424_ch10_dtype을int32에서int64로변경시.xlsx
+++ b/lecNote/01_python/0424_ch10_dtype을int32에서int64로변경시.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai_x\lecNote\01_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA63F0F-7C1F-480A-9FC2-411CF817AAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70FA124-4660-423F-A240-755B5D37EA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="변경전 a" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,31 +116,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>np.int8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>np.int16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>np.int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>np.int64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-128 ~ 127(2의 7승-1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2의 15승~ 2승15승-1</t>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -181,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -215,32 +207,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -263,16 +229,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -557,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="K13" sqref="K13:R13"/>
     </sheetView>
   </sheetViews>
@@ -1300,107 +1266,331 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6972A939-CD72-479C-A166-0FB49C3327B9}">
-  <dimension ref="B1:M8"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="2.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1">
-        <v>6</v>
-      </c>
-      <c r="D1">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <f>(B3-$B$8)^2</f>
+        <v>64</v>
+      </c>
+      <c r="D3" s="5">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5">
+        <f>(D3-$D$8)^2</f>
+        <v>4</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5">
         <v>5</v>
       </c>
-      <c r="E1">
+      <c r="C4" s="5">
+        <f t="shared" ref="C4:C7" si="0">(B4-$B$8)^2</f>
+        <v>25</v>
+      </c>
+      <c r="D4" s="5">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E7" si="1">(D4-$D$8)^2</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="8">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D6" s="8">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="8">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D7" s="8">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F1">
-        <v>3</v>
-      </c>
-      <c r="G1">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="8">
+        <f>AVERAGE(B3:B7)</f>
+        <v>10</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="8">
+        <f>AVERAGE(D3:D7)</f>
+        <v>9</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5">
+        <f>AVERAGE(C3:C7)</f>
+        <v>35.6</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
+        <f>AVERAGE(E3:E7)</f>
         <v>2</v>
       </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-      <c r="I1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7">
-        <v>7</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="K6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="K8" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="B10" s="5">
+        <f>SQRT(B9)</f>
+        <v>5.9665735560705189</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5">
+        <f>SQRT(D9)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
